--- a/work1.xlsx
+++ b/work1.xlsx
@@ -10,6 +10,8 @@
     <sheet name="3年1班" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="3年2班" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3年3班" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3年4班" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3年5班" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43,12 +45,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002B5F75"/>
+        <fgColor rgb="00CB1B45"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CB1B45"/>
+        <fgColor rgb="002B5F75"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,71 +491,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="B2" t="n">
-        <v>74</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>315</v>
-      </c>
-      <c r="G2" t="n">
-        <v>63</v>
+        <v>205</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>62</v>
+      <c r="A3" s="2" t="n">
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="n">
         <v>14</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="D3" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>260</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>52</v>
+        <v>165</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>14</v>
+      <c r="B4" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>214</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>42.8</v>
+        <v>263</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>52.6</v>
       </c>
     </row>
   </sheetData>
@@ -614,71 +616,71 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>262</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>67</v>
       </c>
-      <c r="F2" t="n">
-        <v>225</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="B3" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>244</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B3" t="n">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="F3" t="n">
-        <v>227</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="D4" t="n">
+        <v>97</v>
+      </c>
+      <c r="E4" t="n">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>13</v>
-      </c>
       <c r="F4" t="n">
-        <v>119</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>23.8</v>
+        <v>331</v>
+      </c>
+      <c r="G4" t="n">
+        <v>66.2</v>
       </c>
     </row>
   </sheetData>
@@ -739,71 +741,321 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>23</v>
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2" t="n">
+        <v>283</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>257</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>265</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>總分</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>平均</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>168</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>230</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>182</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>36.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>總分</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>平均</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B2" t="n">
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>239</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>47.8</v>
+        <v>296</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>175</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>35</v>
+        <v>127</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>306</v>
-      </c>
-      <c r="G4" t="n">
-        <v>61.2</v>
+        <v>221</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>44.2</v>
       </c>
     </row>
   </sheetData>
